--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3418.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3418.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.238070657376598</v>
+        <v>1.429807782173157</v>
       </c>
       <c r="B1">
-        <v>1.868178046255003</v>
+        <v>2.734714508056641</v>
       </c>
       <c r="C1">
-        <v>4.057558307504149</v>
+        <v>6.364161491394043</v>
       </c>
       <c r="D1">
-        <v>4.597612678698469</v>
+        <v>2.351888179779053</v>
       </c>
       <c r="E1">
-        <v>1.224682852327138</v>
+        <v>1.162959575653076</v>
       </c>
     </row>
   </sheetData>
